--- a/documents/gantt.xlsx
+++ b/documents/gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noniz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B39D9A4-51F3-4BB4-A8D7-A85357DE027F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACDEE36-6743-41CD-A3BE-5AD097939B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -511,16 +511,16 @@
   <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
-    <col min="2" max="6" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -548,17 +548,17 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -568,7 +568,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
